--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R207_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -709,10 +721,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -756,28 +768,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -802,28 +814,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1056,10 +1068,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1103,28 +1115,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1149,28 +1161,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1519,10 +1531,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1566,28 +1578,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1612,28 +1624,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1866,10 +1878,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1913,28 +1925,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1959,28 +1971,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2213,10 +2225,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2260,28 +2272,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2306,28 +2318,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2734,10 +2746,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2781,28 +2793,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2827,28 +2839,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2994,10 +3006,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="J99" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3041,28 +3053,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3087,28 +3099,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3254,10 +3266,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3301,28 +3313,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3347,28 +3359,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3572,10 +3584,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="J119" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3619,28 +3631,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3665,28 +3677,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4006,10 +4018,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="J134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4053,28 +4065,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4099,28 +4111,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4382,10 +4394,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
+      <c r="J147" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4429,28 +4441,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4475,28 +4487,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4642,10 +4654,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4689,28 +4701,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4735,28 +4747,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4873,10 +4885,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
+      <c r="J164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4920,28 +4932,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4966,28 +4978,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5075,10 +5087,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
